--- a/CPOS.BS.Web/Module/CreativityWarehouse/CreativeWarehouseView/images/全年计划.xlsx
+++ b/CPOS.BS.Web/Module/CreativityWarehouse/CreativeWarehouseView/images/全年计划.xlsx
@@ -1,48 +1,594 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="19770" windowHeight="8385"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="MKTCalendar" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50">
+  <si>
+    <t>全年营销计划</t>
+  </si>
+  <si>
+    <t>主题营销</t>
+  </si>
+  <si>
+    <t>1月</t>
+  </si>
+  <si>
+    <t>2月</t>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t>6月</t>
+  </si>
+  <si>
+    <t>7月</t>
+  </si>
+  <si>
+    <t>8月</t>
+  </si>
+  <si>
+    <t>9月</t>
+  </si>
+  <si>
+    <t>10月</t>
+  </si>
+  <si>
+    <t>11月</t>
+  </si>
+  <si>
+    <t>12月</t>
+  </si>
+  <si>
+    <t>冬季时令</t>
+  </si>
+  <si>
+    <t>春节时令</t>
+  </si>
+  <si>
+    <t>夏季时令</t>
+  </si>
+  <si>
+    <t>秋季时令</t>
+  </si>
+  <si>
+    <t>节假日促销</t>
+  </si>
+  <si>
+    <t>元旦</t>
+  </si>
+  <si>
+    <t>新年
+元宵</t>
+  </si>
+  <si>
+    <t>妇女节</t>
+  </si>
+  <si>
+    <t>清明</t>
+  </si>
+  <si>
+    <t>五一
+母亲节</t>
+  </si>
+  <si>
+    <t>儿童节
+端午节
+父亲节</t>
+  </si>
+  <si>
+    <t>夏日大促</t>
+  </si>
+  <si>
+    <t>七夕</t>
+  </si>
+  <si>
+    <t>教师节
+中秋节</t>
+  </si>
+  <si>
+    <t>国庆节
+重阳节</t>
+  </si>
+  <si>
+    <t>光棍节
+感恩节</t>
+  </si>
+  <si>
+    <t>圣诞</t>
+  </si>
+  <si>
+    <t>专题促销</t>
+  </si>
+  <si>
+    <t>尾牙/年夜饭</t>
+  </si>
+  <si>
+    <t>海鲜节</t>
+  </si>
+  <si>
+    <t>谢师宴</t>
+  </si>
+  <si>
+    <t>中秋家宴</t>
+  </si>
+  <si>
+    <t>尾牙</t>
+  </si>
+  <si>
+    <t>会员卡线下转线上活动</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>外卖产品</t>
+  </si>
+  <si>
+    <t>生鲜商城</t>
+  </si>
+  <si>
+    <t>粽子礼包</t>
+  </si>
+  <si>
+    <t>中秋月饼</t>
+  </si>
+  <si>
+    <t>年货礼包</t>
+  </si>
+  <si>
+    <t>消费者活动</t>
+  </si>
+  <si>
+    <t>试吃</t>
+  </si>
+  <si>
+    <t>探访
+门店</t>
+  </si>
+  <si>
+    <t>旅游节</t>
+  </si>
+  <si>
+    <t>感恩
+活动</t>
+  </si>
+  <si>
+    <t>新店开业营销</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1" tint="0.0499893185216834"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -50,32 +596,915 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <mruColors>
+      <color rgb="0000CCFF"/>
+      <color rgb="00FF00FF"/>
+      <color rgb="00DDDDDD"/>
+      <color rgb="00FFFF99"/>
+      <color rgb="00FFCCFF"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>135110</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>101601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>83120</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>804334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="134620" y="101600"/>
+          <a:ext cx="1564640" cy="702310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127003</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6664</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>626536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1769110" y="127000"/>
+          <a:ext cx="7922895" cy="499110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -360,45 +1789,404 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="21.2166666666667" style="3" customWidth="1"/>
+    <col min="2" max="4" width="8.66666666666667" style="3"/>
+    <col min="5" max="6" width="9" style="1"/>
+    <col min="7" max="9" width="8.66666666666667" style="3"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="12" width="8.66666666666667" style="3"/>
+    <col min="13" max="13" width="9.55833333333333" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.66666666666667" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="67.8" customHeight="1" spans="1:13">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" ht="36" customHeight="1" spans="1:13">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="34"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="20.4" customHeight="1" spans="1:13">
+      <c r="A3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="25.2" customHeight="1" spans="1:13">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="52" customHeight="1" spans="1:13">
+      <c r="A5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="21" customHeight="1" spans="1:13">
+      <c r="A6" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="39"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="20"/>
+      <c r="M6" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="24" customHeight="1" spans="1:13">
+      <c r="A7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="41"/>
+    </row>
+    <row r="8" ht="21" customHeight="1" spans="1:13">
+      <c r="A8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="L8" s="22"/>
+      <c r="M8" s="42"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" ht="33" spans="1:13">
+      <c r="A10" s="12"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="44"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="45"/>
+    </row>
+    <row r="11" ht="22.8" customHeight="1" spans="1:13">
+      <c r="A11" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="33"/>
+      <c r="K11" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="33"/>
+      <c r="M11" s="46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" ht="30" customHeight="1" spans="5:10">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="5:10">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="5:10">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="5:10">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="5:10">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" s="1" customFormat="1"/>
+    <row r="19" spans="5:10">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="5:10">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="5:10">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="5:10">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="5:10">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" ht="30" customHeight="1" spans="5:10">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="5:10">
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A9:A10"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="88" orientation="landscape"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>